--- a/1.設計書/階段/ETロボコン_階段_要件定義.xlsx
+++ b/1.設計書/階段/ETロボコン_階段_要件定義.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b004533\Documents\Robocon2017\Doc\1.設計書\階段\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="19395" windowHeight="8070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要件設計" sheetId="1" r:id="rId1"/>
     <sheet name="階段時の走行体の動作" sheetId="4" r:id="rId2"/>
-    <sheet name="フローチャート" sheetId="2" r:id="rId3"/>
+    <sheet name="フローチャート(編集中_フロア判定まで)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>・ロボコン要件設計</t>
     <rPh sb="5" eb="7">
@@ -682,12 +690,239 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gi_AveOkCount : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>平均値が規定値以下の回数</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gi_StairCounter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :Stair_main()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に入った回数</t>
+    </r>
+    <rPh sb="30" eb="31">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>gi_GyroStr[n]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 40μs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ごとのジャイロセンサー値</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">gi_Stage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>階段の段位のステータス</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gi_AveCount : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>平均値が規定値以下の回数かの測定の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ON/OFF</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>キテイチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>gi_LineStatus :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ライン上にいるかの検知</t>
+    </r>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +960,56 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +1031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +1070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,13 +1104,2242 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>40μs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ごとの値</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PWM50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$3:$C$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="215"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B884-44CE-80E0-C9AFF7E9905F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PWM60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$3:$D$217</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="215"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B884-44CE-80E0-C9AFF7E9905F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="429465904"/>
+        <c:axId val="429465576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429465904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429465576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429465576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429465904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -937,30 +3455,152 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="フローチャート : 端子 1"/>
+        <xdr:cNvPr id="4" name="楕円 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="333376"/>
-          <a:ext cx="1247775" cy="342900"/>
+          <a:off x="4914901" y="914400"/>
+          <a:ext cx="400050" cy="352425"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591049" y="466725"/>
+          <a:ext cx="1143001" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Start (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>灰色検知</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="2466975"/>
+          <a:ext cx="2152650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -979,21 +3619,5943 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_Stage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>init</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(gi_Staga = STAGE_ZERO)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 判断 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276724" y="4076700"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>階段のカウンタ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_StairCounter </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の倍数か？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 代替処理 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905251" y="4991100"/>
+          <a:ext cx="2438400" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_GyroStr[n]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の現在のジャイロセンサー値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角速度</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を格納</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(gi_StairCounter/10) + 1 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 判断 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286249" y="8039100"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最新の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_GyoStr[n]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の値と現在のセンサー値の差が規定値より大きいか </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 代替処理 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905251" y="6162675"/>
+          <a:ext cx="2438400" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_GyroStr[0] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に前の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>個のデータの平均値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を除く</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を入れる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>n == </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(gi_StairCounter/10) + 1 </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="フローチャート: 判断 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="1609725"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>階段の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_Stage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Init </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>か </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="フローチャート: 代替処理 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="8886826"/>
+          <a:ext cx="2438400" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_GyroStr[0] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の平均値が規定の回数規定値以下であるかの測定を開始するのをチェックするステータス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_AveCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="フローチャート: 判断 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="10725150"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_AveCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>か</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="フローチャート: 代替処理 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="12458701"/>
+          <a:ext cx="2257425" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_AveCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>をインクリメントする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 判断 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="11572875"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_GyroStr[0] </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>の平均値が規定値以下であるか？</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="フローチャート: 判断 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="13830300"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>gi_AveOkCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>が規定の数値以上か？</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フローチャート: 代替処理 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="12449176"/>
+          <a:ext cx="2257425" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_AveOkCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を初期化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 代替処理 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4054929" y="15025007"/>
+          <a:ext cx="2122714" cy="410936"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ストップ処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="フローチャート: 代替処理 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095751" y="17372239"/>
+          <a:ext cx="2054678" cy="410936"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_AveCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>にする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="15335250"/>
+          <a:ext cx="2152650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_Stage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のステータス変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(gi_Staga = STAGE_ONE)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="フローチャート: 代替処理 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4054928" y="16664668"/>
+          <a:ext cx="2136321" cy="410936"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gi_AveOkCount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を初期化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>にする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1695451" cy="527093"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="フローチャート: 判断 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="18173700"/>
+          <a:ext cx="1695451" cy="527093"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>階段は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>階か？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gi_Staga == STAGE_ONE)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114926" y="1285875"/>
+          <a:ext cx="0" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5114925" y="2136818"/>
+          <a:ext cx="1" cy="330157"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695326" cy="250868"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="フローチャート: 判断 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4772025" y="3390900"/>
+          <a:ext cx="695326" cy="250868"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="3019425"/>
+          <a:ext cx="4763" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4248149" y="1873272"/>
+          <a:ext cx="504825" cy="1643062"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101887"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>319088</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5119688" y="3641768"/>
+          <a:ext cx="4762" cy="434932"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="4603793"/>
+          <a:ext cx="1" cy="387307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124451" y="5743575"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695326" cy="250868"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="フローチャート: 判断 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="7343775"/>
+          <a:ext cx="695326" cy="250868"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124451" y="6915150"/>
+          <a:ext cx="4762" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>106384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4276724" y="4340247"/>
+          <a:ext cx="504826" cy="3128962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -111321"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129213" y="7594643"/>
+          <a:ext cx="4762" cy="444457"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="8566193"/>
+          <a:ext cx="0" cy="320633"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695326" cy="250868"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フローチャート: 判断 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="10086975"/>
+          <a:ext cx="695326" cy="250868"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線矢印コネクタ 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="9839326"/>
+          <a:ext cx="4763" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>82572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>106384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="1"/>
+          <a:endCxn id="64" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="4286249" y="8302647"/>
+          <a:ext cx="504826" cy="1909762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -111321"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>60368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5138738" y="10337843"/>
+          <a:ext cx="4763" cy="387307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>117518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="11252243"/>
+          <a:ext cx="0" cy="320632"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>107993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143501" y="12099968"/>
+          <a:ext cx="4762" cy="358733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>15897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="カギ線コネクタ 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2633663" y="11836422"/>
+          <a:ext cx="1662112" cy="612754"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695326" cy="250868"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="フローチャート: 判断 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="13192125"/>
+          <a:ext cx="695326" cy="250868"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148263" y="12858751"/>
+          <a:ext cx="0" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>125433</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="カギ線コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3482965" y="11999923"/>
+          <a:ext cx="468333" cy="2166937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>347663</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>79418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5148263" y="13442993"/>
+          <a:ext cx="4763" cy="387307"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357869</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5116286" y="14734311"/>
+          <a:ext cx="4083" cy="290696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="16329932"/>
+          <a:ext cx="8164" cy="334736"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5114925" y="15435943"/>
+          <a:ext cx="1361" cy="325211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360589</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360590</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5123089" y="17075604"/>
+          <a:ext cx="1" cy="296635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="695326" cy="250868"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="フローチャート: 判断 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="17583150"/>
+          <a:ext cx="695326" cy="250868"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>360590</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="直線矢印コネクタ 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5119688" y="17783175"/>
+          <a:ext cx="3402" cy="296636"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>25422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>58759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="カギ線コネクタ 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="99" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5505451" y="10988697"/>
+          <a:ext cx="485775" cy="6719887"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -421569"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5157788" y="17834018"/>
+          <a:ext cx="4763" cy="339682"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236888</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>577065</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161183</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="127" name="グラフ 126"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>484290</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>23194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>470683</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>23194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18173576" y="18705801"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11035393" y="12532179"/>
+          <a:ext cx="81643" cy="993321"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>612321</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="テキスト ボックス 131"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049001" y="12219213"/>
+          <a:ext cx="1809749" cy="272144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>gi_Stage = STAGE_ZERO</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15035893" y="10994572"/>
+          <a:ext cx="1524000" cy="517072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スタート</a:t>
+            <a:t>平均値の規定値以下の回数をカウント判定</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31953</cdr:x>
+      <cdr:y>0.3307</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.36296</cdr:x>
+      <cdr:y>0.43655</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3804434" y="1955408"/>
+          <a:ext cx="517071" cy="625929"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35839</cdr:x>
+      <cdr:y>0.28697</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48068</cdr:x>
+      <cdr:y>0.3445</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4267077" y="1696873"/>
+          <a:ext cx="1455964" cy="340178"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>gi_AveCount = ON</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31839</cdr:x>
+      <cdr:y>0.49408</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37439</cdr:x>
+      <cdr:y>0.49408</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3790827" y="2921515"/>
+          <a:ext cx="666750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33439</cdr:x>
+      <cdr:y>0.524</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39268</cdr:x>
+      <cdr:y>0.524</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3981326" y="3098408"/>
+          <a:ext cx="693965" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35382</cdr:x>
+      <cdr:y>0.55162</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4121</cdr:x>
+      <cdr:y>0.55162</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4212648" y="3261694"/>
+          <a:ext cx="693964" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41439</cdr:x>
+      <cdr:y>0.58844</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42468</cdr:x>
+      <cdr:y>0.65057</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="4933826" y="3479408"/>
+          <a:ext cx="122465" cy="367393"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41553</cdr:x>
+      <cdr:y>0.65977</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54468</cdr:x>
+      <cdr:y>0.69889</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4947433" y="3901229"/>
+          <a:ext cx="1537607" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>gi_Stage = STAGR_ONE</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ジャイロセンサー値"/>
+      <sheetName val="ジャイロセンサー値 (2)"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>PWM50</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>PWM60</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+          <cell r="D18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>13</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>8</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>35</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>36</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>35</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>26</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>4</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>17</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>15</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>6</v>
+          </cell>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>44</v>
+          </cell>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>44</v>
+          </cell>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>34</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>49</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>12</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>2</v>
+          </cell>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>10</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>24</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>7</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>3</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>24</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>5</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>2</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>6</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>15</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>4</v>
+          </cell>
+          <cell r="D61">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>14</v>
+          </cell>
+          <cell r="D62">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>17</v>
+          </cell>
+          <cell r="D63">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>20</v>
+          </cell>
+          <cell r="D64">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>98</v>
+          </cell>
+          <cell r="D65">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>20</v>
+          </cell>
+          <cell r="D66">
+            <v>146</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>43</v>
+          </cell>
+          <cell r="D67">
+            <v>101</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>1</v>
+          </cell>
+          <cell r="D68">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>1</v>
+          </cell>
+          <cell r="D69">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>6</v>
+          </cell>
+          <cell r="D70">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>2</v>
+          </cell>
+          <cell r="D71">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>5</v>
+          </cell>
+          <cell r="D72">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>5</v>
+          </cell>
+          <cell r="D73">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>2</v>
+          </cell>
+          <cell r="D74">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>6</v>
+          </cell>
+          <cell r="D75">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>25</v>
+          </cell>
+          <cell r="D76">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>13</v>
+          </cell>
+          <cell r="D77">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>7</v>
+          </cell>
+          <cell r="D78">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>5</v>
+          </cell>
+          <cell r="D79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>6</v>
+          </cell>
+          <cell r="D80">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>8</v>
+          </cell>
+          <cell r="D81">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>6</v>
+          </cell>
+          <cell r="D82">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>8</v>
+          </cell>
+          <cell r="D83">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>23</v>
+          </cell>
+          <cell r="D84">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>8</v>
+          </cell>
+          <cell r="D85">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>6</v>
+          </cell>
+          <cell r="D86">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>7</v>
+          </cell>
+          <cell r="D87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>15</v>
+          </cell>
+          <cell r="D88">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>3</v>
+          </cell>
+          <cell r="D89">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>7</v>
+          </cell>
+          <cell r="D90">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>4</v>
+          </cell>
+          <cell r="D91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>24</v>
+          </cell>
+          <cell r="D92">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>26</v>
+          </cell>
+          <cell r="D93">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>27</v>
+          </cell>
+          <cell r="D94">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>5</v>
+          </cell>
+          <cell r="D95">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>9</v>
+          </cell>
+          <cell r="D96">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>0</v>
+          </cell>
+          <cell r="D97">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>4</v>
+          </cell>
+          <cell r="D98">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>0</v>
+          </cell>
+          <cell r="D99">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>3</v>
+          </cell>
+          <cell r="D100">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>6</v>
+          </cell>
+          <cell r="D101">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>13</v>
+          </cell>
+          <cell r="D102">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>24</v>
+          </cell>
+          <cell r="D103">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>26</v>
+          </cell>
+          <cell r="D104">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="C105">
+            <v>13</v>
+          </cell>
+          <cell r="D105">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="C106">
+            <v>7</v>
+          </cell>
+          <cell r="D106">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="C107">
+            <v>1</v>
+          </cell>
+          <cell r="D107">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="C108">
+            <v>14</v>
+          </cell>
+          <cell r="D108">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="C109">
+            <v>9</v>
+          </cell>
+          <cell r="D109">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="C110">
+            <v>8</v>
+          </cell>
+          <cell r="D110">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="C111">
+            <v>2</v>
+          </cell>
+          <cell r="D111">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="C112">
+            <v>3</v>
+          </cell>
+          <cell r="D112">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="C113">
+            <v>12</v>
+          </cell>
+          <cell r="D113">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="C114">
+            <v>14</v>
+          </cell>
+          <cell r="D114">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="C115">
+            <v>4</v>
+          </cell>
+          <cell r="D115">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="C116">
+            <v>36</v>
+          </cell>
+          <cell r="D116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="C117">
+            <v>22</v>
+          </cell>
+          <cell r="D117">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="C118">
+            <v>7</v>
+          </cell>
+          <cell r="D118">
+            <v>140</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="C119">
+            <v>10</v>
+          </cell>
+          <cell r="D119">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="C120">
+            <v>12</v>
+          </cell>
+          <cell r="D120">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="C121">
+            <v>8</v>
+          </cell>
+          <cell r="D121">
+            <v>88</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="C122">
+            <v>38</v>
+          </cell>
+          <cell r="D122">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="C123">
+            <v>10</v>
+          </cell>
+          <cell r="D123">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="C124">
+            <v>7</v>
+          </cell>
+          <cell r="D124">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="C125">
+            <v>197</v>
+          </cell>
+          <cell r="D125">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="C126">
+            <v>31</v>
+          </cell>
+          <cell r="D126">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="C127">
+            <v>11</v>
+          </cell>
+          <cell r="D127">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="C128">
+            <v>88</v>
+          </cell>
+          <cell r="D128">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="C129">
+            <v>90</v>
+          </cell>
+          <cell r="D129">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="C130">
+            <v>77</v>
+          </cell>
+          <cell r="D130">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="C131">
+            <v>17</v>
+          </cell>
+          <cell r="D131">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="C132">
+            <v>63</v>
+          </cell>
+          <cell r="D132">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="C133">
+            <v>71</v>
+          </cell>
+          <cell r="D133">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134">
+            <v>35</v>
+          </cell>
+          <cell r="D134">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135">
+            <v>45</v>
+          </cell>
+          <cell r="D135">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136">
+            <v>28</v>
+          </cell>
+          <cell r="D136">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137">
+            <v>12</v>
+          </cell>
+          <cell r="D137">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138">
+            <v>72</v>
+          </cell>
+          <cell r="D138">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139">
+            <v>28</v>
+          </cell>
+          <cell r="D139">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140">
+            <v>7</v>
+          </cell>
+          <cell r="D140">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141">
+            <v>24</v>
+          </cell>
+          <cell r="D141">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142">
+            <v>28</v>
+          </cell>
+          <cell r="D142">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143">
+            <v>45</v>
+          </cell>
+          <cell r="D143">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144">
+            <v>53</v>
+          </cell>
+          <cell r="D144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145">
+            <v>33</v>
+          </cell>
+          <cell r="D145">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146">
+            <v>10</v>
+          </cell>
+          <cell r="D146">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147">
+            <v>1</v>
+          </cell>
+          <cell r="D147">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148">
+            <v>1</v>
+          </cell>
+          <cell r="D148">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149">
+            <v>3</v>
+          </cell>
+          <cell r="D149">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150">
+            <v>1</v>
+          </cell>
+          <cell r="D150">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151">
+            <v>36</v>
+          </cell>
+          <cell r="D151">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152">
+            <v>28</v>
+          </cell>
+          <cell r="D152">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153">
+            <v>26</v>
+          </cell>
+          <cell r="D153">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154">
+            <v>5</v>
+          </cell>
+          <cell r="D154">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155">
+            <v>4</v>
+          </cell>
+          <cell r="D155">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156">
+            <v>6</v>
+          </cell>
+          <cell r="D156">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157">
+            <v>0</v>
+          </cell>
+          <cell r="D157">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158">
+            <v>0</v>
+          </cell>
+          <cell r="D158">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159">
+            <v>8</v>
+          </cell>
+          <cell r="D159">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160">
+            <v>16</v>
+          </cell>
+          <cell r="D160">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="C161">
+            <v>19</v>
+          </cell>
+          <cell r="D161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="C162">
+            <v>17</v>
+          </cell>
+          <cell r="D162">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="C163">
+            <v>3</v>
+          </cell>
+          <cell r="D163">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="C164">
+            <v>1</v>
+          </cell>
+          <cell r="D164">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="C165">
+            <v>15</v>
+          </cell>
+          <cell r="D165">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="C166">
+            <v>7</v>
+          </cell>
+          <cell r="D166">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="C167">
+            <v>2</v>
+          </cell>
+          <cell r="D167">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="C168">
+            <v>0</v>
+          </cell>
+          <cell r="D168">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="C169">
+            <v>38</v>
+          </cell>
+          <cell r="D169">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="C170">
+            <v>21</v>
+          </cell>
+          <cell r="D170">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="C171">
+            <v>12</v>
+          </cell>
+          <cell r="D171">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="C172">
+            <v>11</v>
+          </cell>
+          <cell r="D172">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="C173">
+            <v>26</v>
+          </cell>
+          <cell r="D173">
+            <v>99</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="C174">
+            <v>18</v>
+          </cell>
+          <cell r="D174">
+            <v>92</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="C175">
+            <v>16</v>
+          </cell>
+          <cell r="D175">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="C176">
+            <v>2</v>
+          </cell>
+          <cell r="D176">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="C177">
+            <v>8</v>
+          </cell>
+          <cell r="D177">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="C178">
+            <v>15</v>
+          </cell>
+          <cell r="D178">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="C179">
+            <v>77</v>
+          </cell>
+          <cell r="D179">
+            <v>53</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="C180">
+            <v>84</v>
+          </cell>
+          <cell r="D180">
+            <v>84</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="C181">
+            <v>5</v>
+          </cell>
+          <cell r="D181">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="C182">
+            <v>102</v>
+          </cell>
+          <cell r="D182">
+            <v>41</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="C183">
+            <v>12</v>
+          </cell>
+          <cell r="D183">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="C184">
+            <v>15</v>
+          </cell>
+          <cell r="D184">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="C185">
+            <v>76</v>
+          </cell>
+          <cell r="D185">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="C186">
+            <v>71</v>
+          </cell>
+          <cell r="D186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="C187">
+            <v>38</v>
+          </cell>
+          <cell r="D187">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="C188">
+            <v>103</v>
+          </cell>
+          <cell r="D188">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="C189">
+            <v>112</v>
+          </cell>
+          <cell r="D189">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="C190">
+            <v>38</v>
+          </cell>
+          <cell r="D190">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="C191">
+            <v>66</v>
+          </cell>
+          <cell r="D191">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="C192">
+            <v>60</v>
+          </cell>
+          <cell r="D192">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="C193">
+            <v>41</v>
+          </cell>
+          <cell r="D193">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="C194">
+            <v>1</v>
+          </cell>
+          <cell r="D194">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="C195">
+            <v>0</v>
+          </cell>
+          <cell r="D195">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="C196">
+            <v>3</v>
+          </cell>
+          <cell r="D196">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="C197">
+            <v>27</v>
+          </cell>
+          <cell r="D197">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="C198">
+            <v>51</v>
+          </cell>
+          <cell r="D198">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="C199">
+            <v>54</v>
+          </cell>
+          <cell r="D199">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="C200">
+            <v>27</v>
+          </cell>
+          <cell r="D200">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="C201">
+            <v>26</v>
+          </cell>
+          <cell r="D201">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="C202">
+            <v>7</v>
+          </cell>
+          <cell r="D202">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="C203">
+            <v>26</v>
+          </cell>
+          <cell r="D203">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="C204">
+            <v>29</v>
+          </cell>
+          <cell r="D204">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="C205">
+            <v>11</v>
+          </cell>
+          <cell r="D205">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="C206">
+            <v>3</v>
+          </cell>
+          <cell r="D206">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="C207">
+            <v>7</v>
+          </cell>
+          <cell r="D207">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="C208">
+            <v>2</v>
+          </cell>
+          <cell r="D208">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="C209">
+            <v>1</v>
+          </cell>
+          <cell r="D209">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="C210">
+            <v>10</v>
+          </cell>
+          <cell r="D210">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="C211">
+            <v>7</v>
+          </cell>
+          <cell r="D211">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="C212">
+            <v>13</v>
+          </cell>
+          <cell r="D212">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="C213">
+            <v>47</v>
+          </cell>
+          <cell r="D213">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="C214">
+            <v>16</v>
+          </cell>
+          <cell r="D214">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="C215">
+            <v>26</v>
+          </cell>
+          <cell r="D215">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="C216">
+            <v>20</v>
+          </cell>
+          <cell r="D216">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="C217">
+            <v>4</v>
+          </cell>
+          <cell r="D217">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,7 +9601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1071,9 +9633,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,6 +9668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1280,14 +9844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
@@ -1302,43 +9866,43 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1361,7 +9925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5">
+    <row r="10" spans="2:10" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -1385,7 +9949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>2</v>
@@ -1410,9 +9974,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+        <f t="shared" ref="B12:B29" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1429,7 +9993,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1448,7 +10012,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1467,7 +10031,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1486,7 +10050,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1505,7 +10069,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1524,7 +10088,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1543,7 +10107,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1559,7 +10123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1573,7 +10137,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1587,7 +10151,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1601,7 +10165,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1615,7 +10179,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1627,7 +10191,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1639,7 +10203,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1651,7 +10215,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1663,7 +10227,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1675,7 +10239,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1687,7 +10251,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30"/>
     </row>
   </sheetData>
@@ -1698,12 +10262,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="11" width="9" style="3"/>
     <col min="12" max="12" width="11.5" style="3" bestFit="1" customWidth="1"/>
@@ -1712,12 +10276,12 @@
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="22.5">
+    <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1728,7 +10292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="31.5">
+    <row r="4" spans="2:14" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
@@ -1742,7 +10306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1750,7 +10314,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1761,7 +10325,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1769,7 +10333,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +10341,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1785,7 +10349,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +10357,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1801,7 +10365,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1812,32 +10376,32 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -1850,15 +10414,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/1.設計書/階段/ETロボコン_階段_要件定義.xlsx
+++ b/1.設計書/階段/ETロボコン_階段_要件定義.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b004533\Documents\Robocon2017\Doc\1.設計書\階段\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\robocon\Doc\Doc\1.設計書\階段\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -921,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1137,7 +1137,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
@@ -1897,7 +1897,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B884-44CE-80E0-C9AFF7E9905F}"/>
             </c:ext>
@@ -2584,7 +2584,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B884-44CE-80E0-C9AFF7E9905F}"/>
             </c:ext>
@@ -2599,11 +2599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429465904"/>
-        <c:axId val="429465576"/>
+        <c:axId val="154448744"/>
+        <c:axId val="154449136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="429465904"/>
+        <c:axId val="154448744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2645,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429465576"/>
+        <c:crossAx val="154449136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2653,7 +2653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429465576"/>
+        <c:axId val="154449136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2704,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429465904"/>
+        <c:crossAx val="154448744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7779,8 +7779,8 @@
       <cdr:y>0.65977</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.54468</cdr:x>
-      <cdr:y>0.69889</cdr:y>
+      <cdr:x>0.55987</cdr:x>
+      <cdr:y>0.70901</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7789,8 +7789,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4947433" y="3901229"/>
-          <a:ext cx="1537607" cy="231321"/>
+          <a:off x="4707101" y="3604950"/>
+          <a:ext cx="1635064" cy="269065"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9848,61 +9848,61 @@
   <dimension ref="B1:J30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:J18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="4.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.46484375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>1</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>2</v>
@@ -9974,7 +9974,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" ref="B12:B29" si="0">B11+1</f>
         <v>3</v>
@@ -9993,7 +9993,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10012,7 +10012,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10031,7 +10031,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10050,7 +10050,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10069,7 +10069,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10088,7 +10088,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10107,7 +10107,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10123,7 +10123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10179,7 +10179,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -10215,7 +10215,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30"/>
     </row>
   </sheetData>
@@ -10267,21 +10267,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="25.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.46484375" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" ht="21.75" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -10314,7 +10314,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>42</v>
       </c>
@@ -10341,7 +10341,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
@@ -10349,7 +10349,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
@@ -10376,32 +10376,32 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
@@ -10417,50 +10417,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
     </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
     </row>
   </sheetData>
